--- a/Base limpia.xlsx
+++ b/Base limpia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvanv\Desktop\Estadística 2\Trabajo grupal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64302ED4-9489-440B-A558-71BF874C33DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A60E4F-1CBD-4AD2-B562-8AFBD7F347D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,67 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
-  <si>
-    <t>País</t>
-  </si>
-  <si>
-    <t>Puntación final</t>
-  </si>
-  <si>
-    <t>Puesto en la región</t>
-  </si>
-  <si>
-    <t>Proceso electoral y pluralismo</t>
-  </si>
-  <si>
-    <t>Funcionamiento del gobierno</t>
-  </si>
-  <si>
-    <t>Participación política</t>
-  </si>
-  <si>
-    <t>Cultura política</t>
-  </si>
-  <si>
-    <t>Libertades civiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de régimen </t>
-  </si>
-  <si>
-    <t>Índice de Libertad Económica</t>
-  </si>
-  <si>
-    <t>Interés en la política (en porcentaje)</t>
-  </si>
-  <si>
-    <t>Orientaciones ideológicas de los ciudadanos (izquierda)</t>
-  </si>
-  <si>
-    <t>Orientaciones ideológicas de los ciudadanos (derecha)</t>
-  </si>
-  <si>
-    <t>Satisfacción con la democracia</t>
-  </si>
-  <si>
-    <t>Confianza en los partidos políticos</t>
-  </si>
-  <si>
-    <t>Satisfacción con la economía</t>
-  </si>
-  <si>
-    <t>Índice de Desarrollo Democrático</t>
-  </si>
-  <si>
-    <t>Partidismo</t>
-  </si>
-  <si>
-    <t>Ubicación ideológica del gobierno</t>
-  </si>
-  <si>
-    <t>Apoyo a la democracia</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Argentina</t>
   </si>
@@ -96,49 +36,19 @@
     <t>Democracia defectuosa</t>
   </si>
   <si>
-    <t>43.7</t>
-  </si>
-  <si>
-    <t>35.5</t>
-  </si>
-  <si>
     <t>Izquierda</t>
-  </si>
-  <si>
-    <t>71.1</t>
   </si>
   <si>
     <t>Bolivia</t>
   </si>
   <si>
-    <t>34.2</t>
-  </si>
-  <si>
-    <t>40.8</t>
-  </si>
-  <si>
     <t>izquierda</t>
-  </si>
-  <si>
-    <t>49.1</t>
   </si>
   <si>
     <t>Brasil</t>
   </si>
   <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>41.6</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
     <t>derecha</t>
-  </si>
-  <si>
-    <t>60.0</t>
   </si>
   <si>
     <t>Chile</t>
@@ -147,106 +57,25 @@
     <t>Democracia plena</t>
   </si>
   <si>
-    <t>41.2</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>63.9</t>
-  </si>
-  <si>
     <t>Colombia</t>
-  </si>
-  <si>
-    <t>33.8</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>60.2</t>
   </si>
   <si>
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>42.5</t>
-  </si>
-  <si>
-    <t>45.6</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
     <t>centro</t>
-  </si>
-  <si>
-    <t>72.4</t>
   </si>
   <si>
     <t>Ecuador</t>
   </si>
   <si>
-    <t>38.7</t>
-  </si>
-  <si>
-    <t>54.4</t>
-  </si>
-  <si>
     <t>El Salvador</t>
-  </si>
-  <si>
-    <t>32.4</t>
-  </si>
-  <si>
-    <t>36.6</t>
-  </si>
-  <si>
-    <t>58.6</t>
   </si>
   <si>
     <t>Guatemala</t>
   </si>
   <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>48.9</t>
-  </si>
-  <si>
     <t>Honduras</t>
-  </si>
-  <si>
-    <t>34.5</t>
-  </si>
-  <si>
-    <t>35.9</t>
-  </si>
-  <si>
-    <t>37.5</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>México</t>
-  </si>
-  <si>
-    <t>36.8</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>46.4</t>
-  </si>
-  <si>
-    <t>62.7</t>
   </si>
   <si>
     <t>Nicaragua</t>
@@ -255,82 +84,82 @@
     <t>Autoritarismo</t>
   </si>
   <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>35.1</t>
-  </si>
-  <si>
-    <t>2.74</t>
-  </si>
-  <si>
-    <t>40.6</t>
-  </si>
-  <si>
-    <t>51.5</t>
-  </si>
-  <si>
-    <t>Panamá</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>53.8</t>
-  </si>
-  <si>
     <t>Paraguay</t>
-  </si>
-  <si>
-    <t>42.6</t>
-  </si>
-  <si>
-    <t>51.2</t>
-  </si>
-  <si>
-    <t>Perú</t>
-  </si>
-  <si>
-    <t>29.2</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>49.3</t>
-  </si>
-  <si>
-    <t>República Dominicana</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>38.4</t>
-  </si>
-  <si>
-    <t>43.1</t>
-  </si>
-  <si>
-    <t>42.4</t>
-  </si>
-  <si>
-    <t>59.2</t>
   </si>
   <si>
     <t>Uruguay</t>
   </si>
   <si>
-    <t>46.6</t>
+    <t>gobierno</t>
   </si>
   <si>
-    <t>59.5</t>
+    <t>participacion</t>
   </si>
   <si>
-    <t>44.4</t>
+    <t>culturapolitica</t>
   </si>
   <si>
-    <t>76.2</t>
+    <t>score</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>eleccioneslibres</t>
+  </si>
+  <si>
+    <t>libciviles</t>
+  </si>
+  <si>
+    <t>regimen</t>
+  </si>
+  <si>
+    <t>interpol</t>
+  </si>
+  <si>
+    <t>ideoizq</t>
+  </si>
+  <si>
+    <t>ideoder</t>
+  </si>
+  <si>
+    <t>confpartidos</t>
+  </si>
+  <si>
+    <t>satisecon</t>
+  </si>
+  <si>
+    <t>partidismo</t>
+  </si>
+  <si>
+    <t>ile</t>
+  </si>
+  <si>
+    <t>idd</t>
+  </si>
+  <si>
+    <t>ideogob</t>
+  </si>
+  <si>
+    <t>satisdemo</t>
+  </si>
+  <si>
+    <t>apoyodemo</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Republica Dominicana</t>
+  </si>
+  <si>
+    <t>Pais</t>
   </si>
 </sst>
 </file>
@@ -404,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -456,6 +285,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -736,67 +568,67 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" ht="58" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="29" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -812,7 +644,7 @@
     <row r="3" spans="1:31" ht="29" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
         <v>6.95</v>
@@ -836,13 +668,13 @@
         <v>7.94</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K3" s="9">
         <v>53.1</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>22</v>
+      <c r="L3" s="18">
+        <v>43.7</v>
       </c>
       <c r="M3" s="11">
         <v>44459</v>
@@ -850,8 +682,8 @@
       <c r="N3" s="11">
         <v>44455</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>23</v>
+      <c r="O3" s="18">
+        <v>35.5</v>
       </c>
       <c r="P3" s="11">
         <v>44244</v>
@@ -860,16 +692,16 @@
         <v>7</v>
       </c>
       <c r="R3" s="12">
-        <v>5159</v>
+        <v>5.1589999999999998</v>
       </c>
       <c r="S3" s="11">
         <v>44275</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="U3" s="18">
+        <v>71.099999999999994</v>
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
@@ -885,7 +717,7 @@
     <row r="4" spans="1:31" ht="29" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5">
         <v>5.08</v>
@@ -909,13 +741,13 @@
         <v>5.88</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K4" s="9">
         <v>42.8</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>27</v>
+      <c r="L4" s="18">
+        <v>34.200000000000003</v>
       </c>
       <c r="M4" s="11">
         <v>44337</v>
@@ -923,8 +755,8 @@
       <c r="N4" s="11">
         <v>44220</v>
       </c>
-      <c r="O4" s="10" t="s">
-        <v>28</v>
+      <c r="O4" s="18">
+        <v>40.799999999999997</v>
       </c>
       <c r="P4" s="11">
         <v>44271</v>
@@ -933,16 +765,16 @@
         <v>26</v>
       </c>
       <c r="R4" s="12">
-        <v>5218</v>
+        <v>5.218</v>
       </c>
       <c r="S4" s="11">
         <v>44455</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="U4" s="18">
+        <v>49.1</v>
       </c>
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
@@ -958,7 +790,7 @@
     <row r="5" spans="1:31" ht="29" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5">
         <v>6.92</v>
@@ -982,7 +814,7 @@
         <v>7.94</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K5" s="9">
         <v>53.7</v>
@@ -993,29 +825,29 @@
       <c r="M5" s="11">
         <v>44339</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="10" t="s">
+      <c r="N5" s="18">
         <v>34</v>
+      </c>
+      <c r="O5" s="18">
+        <v>41.6</v>
+      </c>
+      <c r="P5" s="18">
+        <v>9</v>
       </c>
       <c r="Q5" s="13">
         <v>5</v>
       </c>
       <c r="R5" s="12">
-        <v>2776</v>
+        <v>2.7759999999999998</v>
       </c>
       <c r="S5" s="11">
         <v>44215</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="U5" s="18">
+        <v>60</v>
       </c>
       <c r="V5" s="14"/>
       <c r="W5" s="15"/>
@@ -1031,7 +863,7 @@
     <row r="6" spans="1:31" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5">
         <v>8.2799999999999994</v>
@@ -1055,7 +887,7 @@
         <v>8.82</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="K6" s="9">
         <v>76.8</v>
@@ -1069,8 +901,8 @@
       <c r="N6" s="11">
         <v>44269</v>
       </c>
-      <c r="O6" s="10" t="s">
-        <v>39</v>
+      <c r="O6" s="18">
+        <v>41.2</v>
       </c>
       <c r="P6" s="11">
         <v>44324</v>
@@ -1078,17 +910,17 @@
       <c r="Q6" s="10">
         <v>30</v>
       </c>
-      <c r="R6" s="10" t="s">
-        <v>40</v>
+      <c r="R6" s="18">
+        <v>10</v>
       </c>
       <c r="S6" s="11">
         <v>44267</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="U6" s="18">
+        <v>63.9</v>
       </c>
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
@@ -1104,7 +936,7 @@
     <row r="7" spans="1:31" ht="29" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>7.04</v>
@@ -1128,13 +960,13 @@
         <v>7.94</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K7" s="9">
         <v>69.2</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>43</v>
+      <c r="L7" s="18">
+        <v>33.799999999999997</v>
       </c>
       <c r="M7" s="11">
         <v>44246</v>
@@ -1145,23 +977,23 @@
       <c r="O7" s="11">
         <v>44405</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>44</v>
+      <c r="P7" s="18">
+        <v>10</v>
       </c>
       <c r="Q7" s="10">
         <v>20</v>
       </c>
       <c r="R7" s="12">
-        <v>2982</v>
+        <v>2.9820000000000002</v>
       </c>
       <c r="S7" s="11">
         <v>44369</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="U7" s="18">
+        <v>60.2</v>
       </c>
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
@@ -1177,7 +1009,7 @@
     <row r="8" spans="1:31" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5">
         <v>8.16</v>
@@ -1201,13 +1033,13 @@
         <v>9.7100000000000009</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="K8" s="9">
         <v>65.8</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>47</v>
+      <c r="L8" s="18">
+        <v>42.5</v>
       </c>
       <c r="M8" s="11">
         <v>44252</v>
@@ -1215,8 +1047,8 @@
       <c r="N8" s="11">
         <v>44276</v>
       </c>
-      <c r="O8" s="10" t="s">
-        <v>48</v>
+      <c r="O8" s="18">
+        <v>45.6</v>
       </c>
       <c r="P8" s="11">
         <v>44216</v>
@@ -1225,16 +1057,16 @@
         <v>17</v>
       </c>
       <c r="R8" s="12">
-        <v>8539</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>49</v>
+        <v>8.5389999999999997</v>
+      </c>
+      <c r="S8" s="18">
+        <v>20</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>51</v>
+        <v>11</v>
+      </c>
+      <c r="U8" s="18">
+        <v>72.400000000000006</v>
       </c>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
@@ -1250,7 +1082,7 @@
     <row r="9" spans="1:31" ht="29" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5">
         <v>6.13</v>
@@ -1274,7 +1106,7 @@
         <v>6.47</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K9" s="9">
         <v>51.3</v>
@@ -1288,26 +1120,26 @@
       <c r="N9" s="11">
         <v>44431</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>49</v>
+      <c r="O9" s="18">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="P9" s="18">
+        <v>20</v>
       </c>
       <c r="Q9" s="10">
         <v>30</v>
       </c>
       <c r="R9" s="12">
-        <v>5339</v>
+        <v>5.3390000000000004</v>
       </c>
       <c r="S9" s="11">
         <v>44431</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="U9" s="18">
+        <v>54.4</v>
       </c>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
@@ -1323,7 +1155,7 @@
     <row r="10" spans="1:31" ht="29" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5">
         <v>5.9</v>
@@ -1347,13 +1179,13 @@
         <v>6.18</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K10" s="9">
         <v>61.6</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>56</v>
+      <c r="L10" s="18">
+        <v>32.4</v>
       </c>
       <c r="M10" s="11">
         <v>44217</v>
@@ -1361,8 +1193,8 @@
       <c r="N10" s="11">
         <v>44404</v>
       </c>
-      <c r="O10" s="10" t="s">
-        <v>57</v>
+      <c r="O10" s="18">
+        <v>36.6</v>
       </c>
       <c r="P10" s="11">
         <v>44215</v>
@@ -1371,16 +1203,16 @@
         <v>7</v>
       </c>
       <c r="R10" s="12">
-        <v>4019</v>
+        <v>4.0190000000000001</v>
       </c>
       <c r="S10" s="11">
         <v>44312</v>
       </c>
       <c r="T10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>58</v>
+        <v>6</v>
+      </c>
+      <c r="U10" s="18">
+        <v>58.6</v>
       </c>
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
@@ -1396,7 +1228,7 @@
     <row r="11" spans="1:31" ht="29" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5">
         <v>4.97</v>
@@ -1420,7 +1252,7 @@
         <v>5.88</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K11" s="9">
         <v>64</v>
@@ -1434,8 +1266,8 @@
       <c r="N11" s="11">
         <v>44463</v>
       </c>
-      <c r="O11" s="10" t="s">
-        <v>60</v>
+      <c r="O11" s="18">
+        <v>41</v>
       </c>
       <c r="P11" s="11">
         <v>44361</v>
@@ -1444,16 +1276,16 @@
         <v>15</v>
       </c>
       <c r="R11" s="12">
-        <v>888</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="S11" s="11">
         <v>44444</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="U11" s="18">
+        <v>48.9</v>
       </c>
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
@@ -1469,7 +1301,7 @@
     <row r="12" spans="1:31" ht="29" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5">
         <v>5.36</v>
@@ -1493,7 +1325,7 @@
         <v>5.88</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K12" s="9">
         <v>61.1</v>
@@ -1504,11 +1336,11 @@
       <c r="M12" s="11">
         <v>44405</v>
       </c>
-      <c r="N12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>64</v>
+      <c r="N12" s="18">
+        <v>34.5</v>
+      </c>
+      <c r="O12" s="18">
+        <v>35.9</v>
       </c>
       <c r="P12" s="11">
         <v>44430</v>
@@ -1517,16 +1349,16 @@
         <v>16</v>
       </c>
       <c r="R12" s="12">
-        <v>1589</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>65</v>
+        <v>1.589</v>
+      </c>
+      <c r="S12" s="18">
+        <v>37.5</v>
       </c>
       <c r="T12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>66</v>
+        <v>6</v>
+      </c>
+      <c r="U12" s="18">
+        <v>45</v>
       </c>
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
@@ -1542,7 +1374,7 @@
     <row r="13" spans="1:31" ht="29" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
         <v>6.07</v>
@@ -1566,22 +1398,22 @@
         <v>5.88</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K13" s="9">
         <v>66</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>71</v>
+      <c r="L13" s="18">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="M13" s="18">
+        <v>24</v>
+      </c>
+      <c r="N13" s="18">
+        <v>22</v>
+      </c>
+      <c r="O13" s="18">
+        <v>46.4</v>
       </c>
       <c r="P13" s="11">
         <v>44421</v>
@@ -1590,16 +1422,16 @@
         <v>14</v>
       </c>
       <c r="R13" s="12">
-        <v>4454</v>
+        <v>4.4539999999999997</v>
       </c>
       <c r="S13" s="11">
         <v>44426</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+      <c r="U13" s="18">
+        <v>62.7</v>
       </c>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
@@ -1615,7 +1447,7 @@
     <row r="14" spans="1:31" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5">
         <v>3.6</v>
@@ -1639,13 +1471,13 @@
         <v>4.12</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="K14" s="9">
         <v>57.2</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>75</v>
+      <c r="L14" s="18">
+        <v>28</v>
       </c>
       <c r="M14" s="11">
         <v>44373</v>
@@ -1653,26 +1485,26 @@
       <c r="N14" s="11">
         <v>44407</v>
       </c>
-      <c r="O14" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>76</v>
+      <c r="O14" s="18">
+        <v>46.4</v>
+      </c>
+      <c r="P14" s="18">
+        <v>35.1</v>
       </c>
       <c r="Q14" s="10">
         <v>17</v>
       </c>
-      <c r="R14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>78</v>
+      <c r="R14" s="18">
+        <v>2.74</v>
+      </c>
+      <c r="S14" s="18">
+        <v>40.6</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>79</v>
+        <v>4</v>
+      </c>
+      <c r="U14" s="18">
+        <v>51.5</v>
       </c>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
@@ -1688,7 +1520,7 @@
     <row r="15" spans="1:31" ht="29" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5">
         <v>7.18</v>
@@ -1712,7 +1544,7 @@
         <v>7.65</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K15" s="9">
         <v>67.2</v>
@@ -1720,8 +1552,8 @@
       <c r="L15" s="11">
         <v>44468</v>
       </c>
-      <c r="M15" s="10" t="s">
-        <v>81</v>
+      <c r="M15" s="18">
+        <v>32</v>
       </c>
       <c r="N15" s="11">
         <v>44429</v>
@@ -1736,16 +1568,16 @@
         <v>16</v>
       </c>
       <c r="R15" s="12">
-        <v>6342</v>
+        <v>6.3419999999999996</v>
       </c>
       <c r="S15" s="11">
         <v>44277</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>82</v>
+        <v>11</v>
+      </c>
+      <c r="U15" s="18">
+        <v>53.8</v>
       </c>
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
@@ -1761,7 +1593,7 @@
     <row r="16" spans="1:31" ht="29" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5">
         <v>6.18</v>
@@ -1785,13 +1617,13 @@
         <v>7.06</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K16" s="9">
         <v>63</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>23</v>
+      <c r="L16" s="18">
+        <v>35.5</v>
       </c>
       <c r="M16" s="11">
         <v>44438</v>
@@ -1799,8 +1631,8 @@
       <c r="N16" s="11">
         <v>44434</v>
       </c>
-      <c r="O16" s="10" t="s">
-        <v>84</v>
+      <c r="O16" s="18">
+        <v>42.6</v>
       </c>
       <c r="P16" s="11">
         <v>44331</v>
@@ -1809,16 +1641,16 @@
         <v>19</v>
       </c>
       <c r="R16" s="12">
-        <v>3251</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>65</v>
+        <v>3.2509999999999999</v>
+      </c>
+      <c r="S16" s="18">
+        <v>37.5</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>85</v>
+        <v>6</v>
+      </c>
+      <c r="U16" s="18">
+        <v>51.2</v>
       </c>
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
@@ -1834,7 +1666,7 @@
     <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5">
         <v>6.53</v>
@@ -1858,13 +1690,13 @@
         <v>7.35</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K17" s="9">
         <v>67.900000000000006</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>87</v>
+      <c r="L17" s="18">
+        <v>29.2</v>
       </c>
       <c r="M17" s="11">
         <v>44249</v>
@@ -1872,8 +1704,8 @@
       <c r="N17" s="11">
         <v>44398</v>
       </c>
-      <c r="O17" s="10" t="s">
-        <v>75</v>
+      <c r="O17" s="18">
+        <v>28</v>
       </c>
       <c r="P17" s="11">
         <v>44323</v>
@@ -1882,16 +1714,16 @@
         <v>9</v>
       </c>
       <c r="R17" s="12">
-        <v>6495</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>88</v>
+        <v>6.4950000000000001</v>
+      </c>
+      <c r="S17" s="18">
+        <v>15</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>89</v>
+        <v>11</v>
+      </c>
+      <c r="U17" s="18">
+        <v>49.3</v>
       </c>
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
@@ -1907,7 +1739,7 @@
     <row r="18" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5">
         <v>6.32</v>
@@ -1931,22 +1763,22 @@
         <v>7.06</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K18" s="9">
         <v>60.9</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>92</v>
+      <c r="L18" s="18">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="M18" s="18">
+        <v>38.4</v>
       </c>
       <c r="N18" s="11">
         <v>44227</v>
       </c>
-      <c r="O18" s="10" t="s">
-        <v>93</v>
+      <c r="O18" s="18">
+        <v>43.1</v>
       </c>
       <c r="P18" s="11">
         <v>44306</v>
@@ -1955,16 +1787,16 @@
         <v>14</v>
       </c>
       <c r="R18" s="12">
-        <v>3639</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>94</v>
+        <v>3.6389999999999998</v>
+      </c>
+      <c r="S18" s="18">
+        <v>42.4</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>95</v>
+        <v>6</v>
+      </c>
+      <c r="U18" s="18">
+        <v>59.2</v>
       </c>
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
@@ -1980,7 +1812,7 @@
     <row r="19" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C19" s="5">
         <v>8.61</v>
@@ -2004,22 +1836,22 @@
         <v>9.7100000000000009</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="K19" s="9">
         <v>69.099999999999994</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>87</v>
+      <c r="L19" s="18">
+        <v>46.6</v>
+      </c>
+      <c r="M19" s="18">
+        <v>29.2</v>
       </c>
       <c r="N19" s="11">
         <v>44429</v>
       </c>
-      <c r="O19" s="10" t="s">
-        <v>98</v>
+      <c r="O19" s="18">
+        <v>59.5</v>
       </c>
       <c r="P19" s="11">
         <v>44403</v>
@@ -2028,16 +1860,16 @@
         <v>22</v>
       </c>
       <c r="R19" s="12">
-        <v>9353</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>99</v>
+        <v>9.3529999999999998</v>
+      </c>
+      <c r="S19" s="18">
+        <v>44.4</v>
       </c>
       <c r="T19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="U19" s="18">
+        <v>76.2</v>
       </c>
       <c r="V19" s="14"/>
       <c r="W19" s="15"/>

--- a/Base limpia.xlsx
+++ b/Base limpia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvanv\Desktop\Estadística 2\Trabajo grupal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A60E4F-1CBD-4AD2-B562-8AFBD7F347D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522A9091-AA87-4FF6-81FB-1AFE6F0C5586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -285,6 +285,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -673,20 +676,20 @@
       <c r="K3" s="9">
         <v>53.1</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="19">
         <v>43.7</v>
       </c>
-      <c r="M3" s="11">
-        <v>44459</v>
-      </c>
-      <c r="N3" s="11">
-        <v>44455</v>
-      </c>
-      <c r="O3" s="18">
+      <c r="M3" s="18">
+        <v>20.9</v>
+      </c>
+      <c r="N3" s="18">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="O3" s="19">
         <v>35.5</v>
       </c>
-      <c r="P3" s="11">
-        <v>44244</v>
+      <c r="P3" s="18">
+        <v>17.2</v>
       </c>
       <c r="Q3" s="10">
         <v>7</v>
@@ -694,13 +697,13 @@
       <c r="R3" s="12">
         <v>5.1589999999999998</v>
       </c>
-      <c r="S3" s="11">
-        <v>44275</v>
+      <c r="S3" s="18">
+        <v>20.3</v>
       </c>
       <c r="T3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="18">
+      <c r="U3" s="19">
         <v>71.099999999999994</v>
       </c>
       <c r="V3" s="14"/>
@@ -746,20 +749,20 @@
       <c r="K4" s="9">
         <v>42.8</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="19">
         <v>34.200000000000003</v>
       </c>
-      <c r="M4" s="11">
-        <v>44337</v>
-      </c>
-      <c r="N4" s="11">
-        <v>44220</v>
-      </c>
-      <c r="O4" s="18">
+      <c r="M4" s="18">
+        <v>21.5</v>
+      </c>
+      <c r="N4" s="18">
+        <v>24.1</v>
+      </c>
+      <c r="O4" s="19">
         <v>40.799999999999997</v>
       </c>
-      <c r="P4" s="11">
-        <v>44271</v>
+      <c r="P4" s="18">
+        <v>16.3</v>
       </c>
       <c r="Q4" s="10">
         <v>26</v>
@@ -767,13 +770,13 @@
       <c r="R4" s="12">
         <v>5.218</v>
       </c>
-      <c r="S4" s="11">
-        <v>44455</v>
+      <c r="S4" s="18">
+        <v>16.899999999999999</v>
       </c>
       <c r="T4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="19">
         <v>49.1</v>
       </c>
       <c r="V4" s="14"/>
@@ -822,13 +825,13 @@
       <c r="L5" s="11">
         <v>44255</v>
       </c>
-      <c r="M5" s="11">
-        <v>44339</v>
+      <c r="M5" s="18">
+        <v>23.5</v>
       </c>
       <c r="N5" s="18">
         <v>34</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="19">
         <v>41.6</v>
       </c>
       <c r="P5" s="18">
@@ -840,13 +843,13 @@
       <c r="R5" s="12">
         <v>2.7759999999999998</v>
       </c>
-      <c r="S5" s="11">
-        <v>44215</v>
+      <c r="S5" s="18">
+        <v>19.100000000000001</v>
       </c>
       <c r="T5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="19">
         <v>60</v>
       </c>
       <c r="V5" s="14"/>
@@ -895,31 +898,31 @@
       <c r="L6" s="11">
         <v>44467</v>
       </c>
-      <c r="M6" s="11">
-        <v>44309</v>
-      </c>
-      <c r="N6" s="11">
-        <v>44269</v>
-      </c>
-      <c r="O6" s="18">
+      <c r="M6" s="18">
+        <v>23.4</v>
+      </c>
+      <c r="N6" s="18">
+        <v>14.3</v>
+      </c>
+      <c r="O6" s="19">
         <v>41.2</v>
       </c>
-      <c r="P6" s="11">
-        <v>44324</v>
+      <c r="P6" s="18">
+        <v>8.5</v>
       </c>
       <c r="Q6" s="10">
         <v>30</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="19">
         <v>10</v>
       </c>
-      <c r="S6" s="11">
-        <v>44267</v>
+      <c r="S6" s="18">
+        <v>12.3</v>
       </c>
       <c r="T6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="19">
         <v>63.9</v>
       </c>
       <c r="V6" s="14"/>
@@ -965,14 +968,14 @@
       <c r="K7" s="9">
         <v>69.2</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="19">
         <v>33.799999999999997</v>
       </c>
-      <c r="M7" s="11">
-        <v>44246</v>
-      </c>
-      <c r="N7" s="11">
-        <v>44406</v>
+      <c r="M7" s="18">
+        <v>19.2</v>
+      </c>
+      <c r="N7" s="18">
+        <v>29.7</v>
       </c>
       <c r="O7" s="11">
         <v>44405</v>
@@ -986,13 +989,13 @@
       <c r="R7" s="12">
         <v>2.9820000000000002</v>
       </c>
-      <c r="S7" s="11">
-        <v>44369</v>
+      <c r="S7" s="18">
+        <v>22.6</v>
       </c>
       <c r="T7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="19">
         <v>60.2</v>
       </c>
       <c r="V7" s="14"/>
@@ -1038,20 +1041,20 @@
       <c r="K8" s="9">
         <v>65.8</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="19">
         <v>42.5</v>
       </c>
-      <c r="M8" s="11">
-        <v>44252</v>
-      </c>
-      <c r="N8" s="11">
-        <v>44276</v>
-      </c>
-      <c r="O8" s="18">
+      <c r="M8" s="18">
+        <v>25.2</v>
+      </c>
+      <c r="N8" s="18">
+        <v>21.3</v>
+      </c>
+      <c r="O8" s="19">
         <v>45.6</v>
       </c>
-      <c r="P8" s="11">
-        <v>44216</v>
+      <c r="P8" s="18">
+        <v>20.100000000000001</v>
       </c>
       <c r="Q8" s="10">
         <v>17</v>
@@ -1065,7 +1068,7 @@
       <c r="T8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="18">
+      <c r="U8" s="19">
         <v>72.400000000000006</v>
       </c>
       <c r="V8" s="14"/>
@@ -1114,13 +1117,13 @@
       <c r="L9" s="11">
         <v>44408</v>
       </c>
-      <c r="M9" s="11">
-        <v>44335</v>
-      </c>
-      <c r="N9" s="11">
-        <v>44431</v>
-      </c>
-      <c r="O9" s="18">
+      <c r="M9" s="18">
+        <v>19.5</v>
+      </c>
+      <c r="N9" s="18">
+        <v>23.8</v>
+      </c>
+      <c r="O9" s="19">
         <v>38.700000000000003</v>
       </c>
       <c r="P9" s="18">
@@ -1132,13 +1135,13 @@
       <c r="R9" s="12">
         <v>5.3390000000000004</v>
       </c>
-      <c r="S9" s="11">
-        <v>44431</v>
+      <c r="S9" s="18">
+        <v>23.8</v>
       </c>
       <c r="T9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U9" s="18">
+      <c r="U9" s="19">
         <v>54.4</v>
       </c>
       <c r="V9" s="14"/>
@@ -1184,20 +1187,20 @@
       <c r="K10" s="9">
         <v>61.6</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="19">
         <v>32.4</v>
       </c>
-      <c r="M10" s="11">
-        <v>44217</v>
-      </c>
-      <c r="N10" s="11">
-        <v>44404</v>
-      </c>
-      <c r="O10" s="18">
+      <c r="M10" s="18">
+        <v>21.1</v>
+      </c>
+      <c r="N10" s="18">
+        <v>27.7</v>
+      </c>
+      <c r="O10" s="19">
         <v>36.6</v>
       </c>
-      <c r="P10" s="11">
-        <v>44215</v>
+      <c r="P10" s="18">
+        <v>19.100000000000001</v>
       </c>
       <c r="Q10" s="10">
         <v>7</v>
@@ -1205,13 +1208,13 @@
       <c r="R10" s="12">
         <v>4.0190000000000001</v>
       </c>
-      <c r="S10" s="11">
-        <v>44312</v>
+      <c r="S10" s="18">
+        <v>26.4</v>
       </c>
       <c r="T10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U10" s="18">
+      <c r="U10" s="19">
         <v>58.6</v>
       </c>
       <c r="V10" s="14"/>
@@ -1260,17 +1263,17 @@
       <c r="L11" s="11">
         <v>44463</v>
       </c>
-      <c r="M11" s="11">
-        <v>44436</v>
-      </c>
-      <c r="N11" s="11">
-        <v>44463</v>
-      </c>
-      <c r="O11" s="18">
+      <c r="M11" s="18">
+        <v>28.8</v>
+      </c>
+      <c r="N11" s="18">
+        <v>24.9</v>
+      </c>
+      <c r="O11" s="19">
         <v>41</v>
       </c>
-      <c r="P11" s="11">
-        <v>44361</v>
+      <c r="P11" s="18">
+        <v>14.6</v>
       </c>
       <c r="Q11" s="10">
         <v>15</v>
@@ -1278,13 +1281,13 @@
       <c r="R11" s="12">
         <v>0.88800000000000001</v>
       </c>
-      <c r="S11" s="11">
-        <v>44444</v>
+      <c r="S11" s="18">
+        <v>5.9</v>
       </c>
       <c r="T11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U11" s="18">
+      <c r="U11" s="19">
         <v>48.9</v>
       </c>
       <c r="V11" s="14"/>
@@ -1333,17 +1336,17 @@
       <c r="L12" s="11">
         <v>44401</v>
       </c>
-      <c r="M12" s="11">
-        <v>44405</v>
+      <c r="M12" s="18">
+        <v>28.7</v>
       </c>
       <c r="N12" s="18">
         <v>34.5</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="19">
         <v>35.9</v>
       </c>
-      <c r="P12" s="11">
-        <v>44430</v>
+      <c r="P12" s="18">
+        <v>22.8</v>
       </c>
       <c r="Q12" s="10">
         <v>16</v>
@@ -1357,7 +1360,7 @@
       <c r="T12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="19">
         <v>45</v>
       </c>
       <c r="V12" s="14"/>
@@ -1403,7 +1406,7 @@
       <c r="K13" s="9">
         <v>66</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="19">
         <v>36.799999999999997</v>
       </c>
       <c r="M13" s="18">
@@ -1412,11 +1415,11 @@
       <c r="N13" s="18">
         <v>22</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="19">
         <v>46.4</v>
       </c>
-      <c r="P13" s="11">
-        <v>44421</v>
+      <c r="P13" s="18">
+        <v>13.8</v>
       </c>
       <c r="Q13" s="10">
         <v>14</v>
@@ -1424,13 +1427,13 @@
       <c r="R13" s="12">
         <v>4.4539999999999997</v>
       </c>
-      <c r="S13" s="11">
-        <v>44426</v>
+      <c r="S13" s="18">
+        <v>18.8</v>
       </c>
       <c r="T13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13" s="19">
         <v>62.7</v>
       </c>
       <c r="V13" s="14"/>
@@ -1476,16 +1479,16 @@
       <c r="K14" s="9">
         <v>57.2</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="19">
         <v>28</v>
       </c>
-      <c r="M14" s="11">
-        <v>44373</v>
-      </c>
-      <c r="N14" s="11">
-        <v>44407</v>
-      </c>
-      <c r="O14" s="18">
+      <c r="M14" s="18">
+        <v>26.6</v>
+      </c>
+      <c r="N14" s="18">
+        <v>30.7</v>
+      </c>
+      <c r="O14" s="19">
         <v>46.4</v>
       </c>
       <c r="P14" s="18">
@@ -1494,7 +1497,7 @@
       <c r="Q14" s="10">
         <v>17</v>
       </c>
-      <c r="R14" s="18">
+      <c r="R14" s="19">
         <v>2.74</v>
       </c>
       <c r="S14" s="18">
@@ -1503,7 +1506,7 @@
       <c r="T14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="18">
+      <c r="U14" s="19">
         <v>51.5</v>
       </c>
       <c r="V14" s="14"/>
@@ -1555,14 +1558,14 @@
       <c r="M15" s="18">
         <v>32</v>
       </c>
-      <c r="N15" s="11">
-        <v>44429</v>
+      <c r="N15" s="18">
+        <v>21.8</v>
       </c>
       <c r="O15" s="11">
         <v>44222</v>
       </c>
-      <c r="P15" s="11">
-        <v>44268</v>
+      <c r="P15" s="18">
+        <v>13.3</v>
       </c>
       <c r="Q15" s="10">
         <v>16</v>
@@ -1570,13 +1573,13 @@
       <c r="R15" s="12">
         <v>6.3419999999999996</v>
       </c>
-      <c r="S15" s="11">
-        <v>44277</v>
+      <c r="S15" s="18">
+        <v>22.3</v>
       </c>
       <c r="T15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="U15" s="18">
+      <c r="U15" s="19">
         <v>53.8</v>
       </c>
       <c r="V15" s="14"/>
@@ -1622,20 +1625,20 @@
       <c r="K16" s="9">
         <v>63</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="19">
         <v>35.5</v>
       </c>
-      <c r="M16" s="11">
-        <v>44438</v>
-      </c>
-      <c r="N16" s="11">
-        <v>44434</v>
-      </c>
-      <c r="O16" s="18">
+      <c r="M16" s="18">
+        <v>30.8</v>
+      </c>
+      <c r="N16" s="18">
+        <v>26.8</v>
+      </c>
+      <c r="O16" s="19">
         <v>42.6</v>
       </c>
-      <c r="P16" s="11">
-        <v>44331</v>
+      <c r="P16" s="18">
+        <v>15.5</v>
       </c>
       <c r="Q16" s="10">
         <v>19</v>
@@ -1649,7 +1652,7 @@
       <c r="T16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U16" s="18">
+      <c r="U16" s="19">
         <v>51.2</v>
       </c>
       <c r="V16" s="14"/>
@@ -1695,20 +1698,20 @@
       <c r="K17" s="9">
         <v>67.900000000000006</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="19">
         <v>29.2</v>
       </c>
-      <c r="M17" s="11">
-        <v>44249</v>
-      </c>
-      <c r="N17" s="11">
-        <v>44398</v>
-      </c>
-      <c r="O17" s="18">
+      <c r="M17" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="N17" s="18">
+        <v>21.7</v>
+      </c>
+      <c r="O17" s="19">
         <v>28</v>
       </c>
-      <c r="P17" s="11">
-        <v>44323</v>
+      <c r="P17" s="18">
+        <v>7.5</v>
       </c>
       <c r="Q17" s="10">
         <v>9</v>
@@ -1722,7 +1725,7 @@
       <c r="T17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="U17" s="18">
+      <c r="U17" s="19">
         <v>49.3</v>
       </c>
       <c r="V17" s="14"/>
@@ -1768,20 +1771,20 @@
       <c r="K18" s="9">
         <v>60.9</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="19">
         <v>35.299999999999997</v>
       </c>
       <c r="M18" s="18">
         <v>38.4</v>
       </c>
-      <c r="N18" s="11">
-        <v>44227</v>
-      </c>
-      <c r="O18" s="18">
+      <c r="N18" s="18">
+        <v>31.1</v>
+      </c>
+      <c r="O18" s="19">
         <v>43.1</v>
       </c>
-      <c r="P18" s="11">
-        <v>44306</v>
+      <c r="P18" s="18">
+        <v>20.399999999999999</v>
       </c>
       <c r="Q18" s="10">
         <v>14</v>
@@ -1795,7 +1798,7 @@
       <c r="T18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U18" s="18">
+      <c r="U18" s="19">
         <v>59.2</v>
       </c>
       <c r="V18" s="14"/>
@@ -1841,20 +1844,20 @@
       <c r="K19" s="9">
         <v>69.099999999999994</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="19">
         <v>46.6</v>
       </c>
       <c r="M19" s="18">
         <v>29.2</v>
       </c>
-      <c r="N19" s="11">
-        <v>44429</v>
-      </c>
-      <c r="O19" s="18">
+      <c r="N19" s="18">
+        <v>21.8</v>
+      </c>
+      <c r="O19" s="19">
         <v>59.5</v>
       </c>
-      <c r="P19" s="11">
-        <v>44403</v>
+      <c r="P19" s="18">
+        <v>26.7</v>
       </c>
       <c r="Q19" s="10">
         <v>22</v>
@@ -1868,7 +1871,7 @@
       <c r="T19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U19" s="18">
+      <c r="U19" s="19">
         <v>76.2</v>
       </c>
       <c r="V19" s="14"/>
